--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Texttint</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,9 +47,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -58,6 +65,113 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="1114425"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3012150" y="2001425"/>
+          <a:ext cx="1581000" cy="1771200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="419100"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512500" y="2371675"/>
+          <a:ext cx="930600" cy="400200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Saumya</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -68,7 +182,7 @@
     <xdr:ext cx="1819275" cy="1819275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -96,7 +210,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -321,8 +435,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="4">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
